--- a/StructureDefinition-be-mycarenetclaim.xlsx
+++ b/StructureDefinition-be-mycarenetclaim.xlsx
@@ -4608,10 +4608,10 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R20" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>42</v>
@@ -11344,10 +11344,10 @@
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R82" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>42</v>
@@ -11560,10 +11560,10 @@
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R84" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>42</v>
@@ -13734,10 +13734,10 @@
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R104" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>42</v>
@@ -13950,10 +13950,10 @@
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R106" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>42</v>

--- a/StructureDefinition-be-mycarenetclaim.xlsx
+++ b/StructureDefinition-be-mycarenetclaim.xlsx
@@ -1201,7 +1201,7 @@
     <t>Typically these information codes are required to support the services rendered or the adjudication of the services rendered.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:system}
+    <t xml:space="preserve">value:category.coding.code}
 </t>
   </si>
   <si>
@@ -2486,7 +2486,7 @@
     <col min="24" max="24" width="121.30859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="70.8671875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="26.2890625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="43.01953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
@@ -11528,7 +11528,7 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>50</v>
@@ -13918,7 +13918,7 @@
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F106" t="s" s="2">
         <v>50</v>

--- a/StructureDefinition-be-mycarenetclaim.xlsx
+++ b/StructureDefinition-be-mycarenetclaim.xlsx
@@ -11344,10 +11344,10 @@
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
-        <v>42</v>
+        <v>428</v>
       </c>
       <c r="R82" t="s" s="2">
-        <v>428</v>
+        <v>42</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>42</v>
@@ -13734,10 +13734,10 @@
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
-        <v>42</v>
+        <v>428</v>
       </c>
       <c r="R104" t="s" s="2">
-        <v>428</v>
+        <v>42</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>42</v>

--- a/StructureDefinition-be-mycarenetclaim.xlsx
+++ b/StructureDefinition-be-mycarenetclaim.xlsx
@@ -544,7 +544,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>https://www.mycarenet.be/fhir/CodeSystem/agreement-types</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/CodeSystem/agreement-types</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/StructureDefinition-be-mycarenetclaim.xlsx
+++ b/StructureDefinition-be-mycarenetclaim.xlsx
@@ -1201,7 +1201,7 @@
     <t>Typically these information codes are required to support the services rendered or the adjudication of the services rendered.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:category.coding.code}
+    <t xml:space="preserve">pattern:category.coding.code}
 </t>
   </si>
   <si>
@@ -2486,7 +2486,7 @@
     <col min="24" max="24" width="121.30859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="70.8671875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="26.2890625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="28.18359375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="43.01953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
@@ -11344,10 +11344,10 @@
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R82" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>42</v>
@@ -11560,10 +11560,10 @@
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
-        <v>42</v>
+        <v>431</v>
       </c>
       <c r="R84" t="s" s="2">
-        <v>431</v>
+        <v>42</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>42</v>
@@ -13734,10 +13734,10 @@
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R104" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>42</v>
@@ -13950,10 +13950,10 @@
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
-        <v>42</v>
+        <v>440</v>
       </c>
       <c r="R106" t="s" s="2">
-        <v>440</v>
+        <v>42</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>42</v>
